--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Serpine1-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Serpine1-Lrp2.xlsx
@@ -543,28 +543,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.98720633333333</v>
+        <v>47.21827566666667</v>
       </c>
       <c r="H2">
-        <v>71.961619</v>
+        <v>141.654827</v>
       </c>
       <c r="I2">
-        <v>0.08089390088548276</v>
+        <v>0.1474788677740264</v>
       </c>
       <c r="J2">
-        <v>0.08089390088548276</v>
+        <v>0.1474788677740264</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N2">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.2517137475265556</v>
+        <v>5.195332435052</v>
       </c>
       <c r="R2">
-        <v>2.265423727739</v>
+        <v>46.757991915468</v>
       </c>
       <c r="S2">
-        <v>0.08089390088548276</v>
+        <v>0.1474788677740264</v>
       </c>
       <c r="T2">
-        <v>0.08089390088548276</v>
+        <v>0.1474788677740264</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,22 +611,22 @@
         <v>703.093093</v>
       </c>
       <c r="I3">
-        <v>0.790364971894386</v>
+        <v>0.7320002818921112</v>
       </c>
       <c r="J3">
-        <v>0.790364971894386</v>
+        <v>0.7320002818921111</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N3">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>2.459341517859222</v>
+        <v>25.786642278868</v>
       </c>
       <c r="R3">
-        <v>22.134073660733</v>
+        <v>232.079780509812</v>
       </c>
       <c r="S3">
-        <v>0.790364971894386</v>
+        <v>0.7320002818921112</v>
       </c>
       <c r="T3">
-        <v>0.790364971894386</v>
+        <v>0.7320002818921111</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,28 +667,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.468602333333333</v>
+        <v>5.398689</v>
       </c>
       <c r="H4">
-        <v>22.405807</v>
+        <v>16.196067</v>
       </c>
       <c r="I4">
-        <v>0.02518694209363544</v>
+        <v>0.01686195715414818</v>
       </c>
       <c r="J4">
-        <v>0.02518694209363544</v>
+        <v>0.01686195715414818</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N4">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.07837302335188889</v>
+        <v>0.594006953292</v>
       </c>
       <c r="R4">
-        <v>0.705357210167</v>
+        <v>5.346062579628</v>
       </c>
       <c r="S4">
-        <v>0.02518694209363544</v>
+        <v>0.01686195715414818</v>
       </c>
       <c r="T4">
-        <v>0.02518694209363544</v>
+        <v>0.01686195715414818</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,28 +729,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.570514</v>
+        <v>24.22137033333334</v>
       </c>
       <c r="H5">
-        <v>67.71154200000001</v>
+        <v>72.66411100000001</v>
       </c>
       <c r="I5">
-        <v>0.07611628036538762</v>
+        <v>0.07565164594134288</v>
       </c>
       <c r="J5">
-        <v>0.07611628036538762</v>
+        <v>0.07565164594134288</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N5">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.2368474504113334</v>
+        <v>2.665028935036</v>
       </c>
       <c r="R5">
-        <v>2.131627053702001</v>
+        <v>23.985260415324</v>
       </c>
       <c r="S5">
-        <v>0.07611628036538762</v>
+        <v>0.07565164594134288</v>
       </c>
       <c r="T5">
-        <v>0.07611628036538762</v>
+        <v>0.07565164594134288</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,28 +791,28 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.040605666666667</v>
+        <v>1.526601</v>
       </c>
       <c r="H6">
-        <v>3.121817</v>
+        <v>4.579803</v>
       </c>
       <c r="I6">
-        <v>0.003509314527520777</v>
+        <v>0.004768098450101454</v>
       </c>
       <c r="J6">
-        <v>0.003509314527520777</v>
+        <v>0.004768098450101453</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N6">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.01091976899744444</v>
+        <v>0.167968854828</v>
       </c>
       <c r="R6">
-        <v>0.098277920977</v>
+        <v>1.511719693452</v>
       </c>
       <c r="S6">
-        <v>0.003509314527520777</v>
+        <v>0.004768098450101454</v>
       </c>
       <c r="T6">
-        <v>0.003509314527520777</v>
+        <v>0.004768098450101453</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,28 +853,28 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.095467333333333</v>
+        <v>7.440473</v>
       </c>
       <c r="H7">
-        <v>21.286402</v>
+        <v>22.321419</v>
       </c>
       <c r="I7">
-        <v>0.02392859023358746</v>
+        <v>0.02323914878826996</v>
       </c>
       <c r="J7">
-        <v>0.02392859023358746</v>
+        <v>0.02323914878826995</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N7">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.07445746904022221</v>
+        <v>0.818660363244</v>
       </c>
       <c r="R7">
-        <v>0.670117221362</v>
+        <v>7.367943269195999</v>
       </c>
       <c r="S7">
-        <v>0.02392859023358746</v>
+        <v>0.02323914878826996</v>
       </c>
       <c r="T7">
-        <v>0.02392859023358746</v>
+        <v>0.02323914878826995</v>
       </c>
     </row>
   </sheetData>
